--- a/docs/20222023_PlanningHDDA.xlsx
+++ b/docs/20222023_PlanningHDDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lclement/Dropbox/statOmics/HDDA/_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milan/Projects/HDDA/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0CCC13-229A-AB4B-B9CA-B806259AEB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE56A0D9-199F-0D4F-BFD0-574706C809F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="20480" windowHeight="12300" xr2:uid="{E4DA3F28-5646-A443-8E07-33881C755EB0}"/>
+    <workbookView xWindow="-34440" yWindow="-3700" windowWidth="19200" windowHeight="17500" xr2:uid="{E4DA3F28-5646-A443-8E07-33881C755EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>L4: pred1</t>
   </si>
   <si>
-    <t>BUB</t>
-  </si>
-  <si>
     <t>paper reading + clustering</t>
   </si>
   <si>
@@ -102,7 +99,10 @@
     <t>Lab 6: LSI</t>
   </si>
   <si>
-    <t>Q&amp;A</t>
+    <t>Q&amp;A (theorie)</t>
+  </si>
+  <si>
+    <t>Q&amp;A (Labs)</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7451C26-8593-414F-98FF-011D84670339}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -719,7 +719,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -768,7 +768,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -814,7 +814,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
@@ -910,7 +910,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -956,7 +956,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -1004,7 +1004,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="1"/>
@@ -1049,8 +1049,8 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="E33" s="2" t="s">
-        <v>22</v>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F36" s="1"/>
     </row>

--- a/docs/20222023_PlanningHDDA.xlsx
+++ b/docs/20222023_PlanningHDDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milan/Projects/HDDA/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE56A0D9-199F-0D4F-BFD0-574706C809F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB75AC6-D6BA-A04B-B0FE-A391B472392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34440" yWindow="-3700" windowWidth="19200" windowHeight="17500" xr2:uid="{E4DA3F28-5646-A443-8E07-33881C755EB0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E4DA3F28-5646-A443-8E07-33881C755EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>di</t>
   </si>
@@ -99,10 +99,7 @@
     <t>Lab 6: LSI</t>
   </si>
   <si>
-    <t>Q&amp;A (theorie)</t>
-  </si>
-  <si>
-    <t>Q&amp;A (Labs)</t>
+    <t>Q&amp;A (Theorie + Labs)</t>
   </si>
 </sst>
 </file>
@@ -513,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7451C26-8593-414F-98FF-011D84670339}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -990,9 +987,6 @@
         <v>10</v>
       </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -1004,8 +998,8 @@
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" t="s">
-        <v>21</v>
+      <c r="E30" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -1097,7 +1091,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="1"/>
     </row>
